--- a/tests.xlsx
+++ b/tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\XLLent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B39486-5F40-4B54-8465-16B8CCAE46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A088144-4788-485C-B73B-377EDA4080AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="396" windowWidth="12096" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="B18" s="1" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46076.646381944447</v>
+        <v>46076.784733912034</v>
       </c>
       <c r="C18" s="3"/>
       <c r="I18" s="1"/>
@@ -660,7 +660,7 @@
       </c>
       <c r="B19" s="1">
         <f ca="1">NOW()</f>
-        <v>46076.646381944447</v>
+        <v>46076.784733912034</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -716,7 +716,7 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>=TBXLL_SheetName(Sheet2!A1:D7)</v>
       </c>
       <c r="B39" t="str" cm="1">
-        <f t="array" ref="B39">_xll.TBXLL_SheetName(Sheet2!A1:D7)</f>
+        <f t="array" aca="1" ref="B39" ca="1">_xll.TBXLL_SheetName(Sheet2!A1:D7)</f>
         <v>[tests.xlsx]Sheet2</v>
       </c>
     </row>
@@ -1015,21 +1015,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="str">
-        <f t="shared" ref="A45:A48" ca="1" si="3">_xlfn.FORMULATEXT(B45)</f>
-        <v>=TBXLL_DynamicString()</v>
-      </c>
-      <c r="B45" s="5" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_DynamicString()</f>
-        <v>Hello from dynamic memory</v>
-      </c>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NormalizeArray({4,9,16,25})</v>
-      </c>
-      <c r="B46" s="4" cm="1">
+        <f t="shared" ref="A46:A51" ca="1" si="3">_xlfn.FORMULATEXT(B46)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B46" s="4">
         <f t="array" ref="B46:E46">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
         <v>7.407407407407407E-2</v>
       </c>
@@ -1061,6 +1054,36 @@
       <c r="B48" cm="1">
         <f t="array" ref="B48">_xll.TBXLL_SlowCalcUnsafe(100)</f>
         <v>66666716645.884483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_NumberName(9)</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" ref="B49">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B50" t="str" cm="1">
+        <f t="array" ref="B50">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_CellLocation(C51)</v>
+      </c>
+      <c r="B51" t="str" cm="1">
+        <f t="array" ref="B51">_xll.TBXLL_CellLocation(C51)</f>
+        <v>row:50col:2</v>
       </c>
     </row>
   </sheetData>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A088144-4788-485C-B73B-377EDA4080AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9CA814-87BC-46FB-A9B7-71B7474341A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,18 +135,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -443,40 +459,40 @@
     <col min="9" max="9" width="15.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="str">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=TBXLL_Multiply(10,2)</v>
       </c>
-      <c r="B2" cm="1">
+      <c r="B2" s="5" cm="1">
         <f t="array" ref="B2">_xll.TBXLL_Multiply(10,2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="str">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="str">
         <f t="shared" ref="A3:A19" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=TBXLL_Multiply("10","2")</v>
       </c>
-      <c r="B3" cm="1">
+      <c r="B3" s="5" cm="1">
         <f t="array" ref="B3">_xll.TBXLL_Multiply("10","2")</f>
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="str">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Multiply(C4,D4)</v>
       </c>
-      <c r="B4" cm="1">
+      <c r="B4" s="5" cm="1">
         <f t="array" ref="B4">_xll.TBXLL_Multiply(C4,D4)</f>
         <v>20</v>
       </c>
@@ -487,102 +503,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="str">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B5" cm="1">
+      <c r="B5" s="5" cm="1">
         <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="str">
+      <c r="F5" t="str">
+        <f>ADDRESS(2,3)</f>
+        <v>$C$2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B6" cm="1">
+      <c r="B6" s="5" cm="1">
         <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="str">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
-      <c r="B7" t="e" cm="1">
+      <c r="B7" s="5" t="e" cm="1">
         <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="str">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B8)</f>
         <v>=TBXLL_Divide(10,0)</v>
       </c>
-      <c r="B8" t="e" cm="1">
+      <c r="B8" s="5" t="e" cm="1">
         <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="str">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B9)</f>
         <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
-      <c r="B9" t="e" cm="1">
+      <c r="B9" s="5" t="e" cm="1">
         <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="str">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B10)</f>
         <v>=TBXLL_NotFound()</v>
       </c>
-      <c r="B10" t="e" cm="1">
+      <c r="B10" s="5" t="e" cm="1">
         <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="str">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B11)</f>
         <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
-      <c r="B11" t="e" cm="1">
+      <c r="B11" s="5" t="e" cm="1">
         <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="str">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=TBXLL_TextOnly(25)</v>
       </c>
-      <c r="B12" s="2" t="e" cm="1">
+      <c r="B12" s="5" t="e" cm="1">
         <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="str">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average({1,2,3})</v>
       </c>
-      <c r="B13" cm="1">
+      <c r="B13" s="5" cm="1">
         <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="str">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average(C14:E14)</v>
       </c>
-      <c r="B14" cm="1">
+      <c r="B14" s="5" cm="1">
         <f t="array" ref="B14">_xll.TBXLL_Average(C14:E14)</f>
         <v>2</v>
       </c>
@@ -596,12 +616,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="str">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,C15,"result")</v>
       </c>
-      <c r="B15" t="str" cm="1">
+      <c r="B15" s="5" t="str" cm="1">
         <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,C15,"result")</f>
         <v>result: 20</v>
       </c>
@@ -609,12 +629,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="str">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,C16,"result")</v>
       </c>
-      <c r="B16" t="str" cm="1">
+      <c r="B16" s="5" t="str" cm="1">
         <f t="array" ref="B16">_xll.TBXLL_ConditionalAdd(10,C16,"result")</f>
         <v>result: 10</v>
       </c>
@@ -623,11 +643,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="str">
+      <c r="A17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_CountIf(C17:E17,"&gt;=3")</v>
       </c>
-      <c r="B17" cm="1">
+      <c r="B17" s="5" cm="1">
         <f t="array" ref="B17">_xll.TBXLL_CountIf(C17:E17,"&gt;=3")</f>
         <v>2</v>
       </c>
@@ -642,53 +662,53 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="str">
+      <c r="A18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Now()</v>
       </c>
-      <c r="B18" s="1" cm="1">
+      <c r="B18" s="6" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46076.784733912034</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>46077.364858912035</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="str">
+      <c r="A19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=NOW()</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <f ca="1">NOW()</f>
-        <v>46076.784733912034</v>
+        <v>46077.364858912035</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="str">
+      <c r="A20" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=TBXLL_SqrtChecked(9)</v>
       </c>
-      <c r="B20" cm="1">
+      <c r="B20" s="5" cm="1">
         <f t="array" ref="B20">_xll.TBXLL_SqrtChecked(9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="str">
+      <c r="A21" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=TBXLL_TextOnly("25")</v>
       </c>
-      <c r="B21" s="2" t="str" cm="1">
+      <c r="B21" s="5" t="str" cm="1">
         <f t="array" ref="B21">_xll.TBXLL_TextOnly("25")</f>
         <v>OK: 25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="str">
+      <c r="A22" s="5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
-      <c r="B22" cm="1">
+      <c r="B22" s="5" cm="1">
         <f t="array" ref="B22:D22">_xll.TBXLL_Transpose({1;2;3})</f>
         <v>1</v>
       </c>
@@ -700,23 +720,23 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="str">
+      <c r="A23" s="5" t="str">
         <f t="shared" ref="A23:A36" ca="1" si="1">_xlfn.FORMULATEXT(B23)</f>
         <v>=TBXLL_Upper("mike")</v>
       </c>
-      <c r="B23" t="str" cm="1">
+      <c r="B23" s="5" t="str" cm="1">
         <f t="array" ref="B23">_xll.TBXLL_Upper("mike")</f>
         <v>MIKE</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="str">
+      <c r="A24" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_RecalcCounter()</v>
       </c>
-      <c r="B24" cm="1">
+      <c r="B24" s="5" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -727,21 +747,21 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="str">
+      <c r="A25" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
-      <c r="B25" cm="1">
+      <c r="B25" s="5" cm="1">
         <f t="array" ref="B25">_xll.TBXLL_SumArray({1,2,3})</f>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="str">
+      <c r="A26" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray(C26:E26)</v>
       </c>
-      <c r="B26" cm="1">
+      <c r="B26" s="5" cm="1">
         <f t="array" ref="B26">_xll.TBXLL_SumArray(C26:E26)</f>
         <v>6</v>
       </c>
@@ -756,11 +776,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="str">
+      <c r="A27" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2({1,2,3})</v>
       </c>
-      <c r="B27" cm="1">
+      <c r="B27" s="5" cm="1">
         <f t="array" ref="B27">_xll.TBXLL_SumArray2({1,2,3})</f>
         <v>6</v>
       </c>
@@ -782,11 +802,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="str">
+      <c r="A28" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2(C26:E26)</v>
       </c>
-      <c r="B28" cm="1">
+      <c r="B28" s="5" cm="1">
         <f t="array" ref="B28">_xll.TBXLL_SumArray2(C26:E26)</f>
         <v>6</v>
       </c>
@@ -808,11 +828,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="str">
+      <c r="A29" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2(G27:I28)</v>
       </c>
-      <c r="B29" cm="1">
+      <c r="B29" s="5" cm="1">
         <f t="array" ref="B29">_xll.TBXLL_SumArray2(G27:I28)</f>
         <v>21</v>
       </c>
@@ -825,31 +845,31 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="str">
+      <c r="A30" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2(F24:F29)</v>
       </c>
-      <c r="B30" cm="1">
+      <c r="B30" s="5" cm="1">
         <f t="array" ref="B30">_xll.TBXLL_SumArray2(F24:F29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="str">
+      <c r="A31" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=SUM(F24:F29)</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <f>SUM(F24:F29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="str">
+      <c r="A32" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D32:F33,TRUE)</v>
       </c>
-      <c r="B32" t="str" cm="1">
+      <c r="B32" s="5" t="str" cm="1">
         <f t="array" ref="B32">_xll.TBXLL_Join(D32:F33,TRUE)</f>
         <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
       </c>
@@ -864,11 +884,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="str">
+      <c r="A33" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D32:F33,FALSE)</v>
       </c>
-      <c r="B33" t="str" cm="1">
+      <c r="B33" s="5" t="str" cm="1">
         <f t="array" ref="B33">_xll.TBXLL_Join(D32:F33,FALSE)</f>
         <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
       </c>
@@ -883,41 +903,41 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="str">
+      <c r="A34" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
       </c>
-      <c r="B34" t="str" cm="1">
+      <c r="B34" s="5" t="str" cm="1">
         <f t="array" ref="B34">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
         <v>11,21,12,22,13,23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="str">
+      <c r="A35" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
       </c>
-      <c r="B35" t="str" cm="1">
+      <c r="B35" s="5" t="str" cm="1">
         <f t="array" ref="B35">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
         <v>11,12,13,21,22,23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="str">
+      <c r="A36" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
-      <c r="B36" t="str" cm="1">
+      <c r="B36" s="5" t="str" cm="1">
         <f t="array" ref="B36">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
         <v>11,12,13,21,22,23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="str">
+      <c r="A37" s="5" t="str">
         <f t="shared" ref="A37:A44" ca="1" si="2">_xlfn.FORMULATEXT(B37)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
-      <c r="B37" t="b" cm="1">
+      <c r="B37" s="5" t="b" cm="1">
         <f t="array" ref="B37">_xll.TBXLL_CellValue(testNamedRange)</f>
         <v>1</v>
       </c>
@@ -926,11 +946,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="str">
+      <c r="A38" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_CellValue(C38)</v>
       </c>
-      <c r="B38" cm="1">
+      <c r="B38" s="5" cm="1">
         <f t="array" ref="B38">_xll.TBXLL_CellValue(C38)</f>
         <v>99</v>
       </c>
@@ -939,41 +959,41 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="str">
+      <c r="A39" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_SheetName(Sheet2!A1:D7)</v>
       </c>
-      <c r="B39" t="str" cm="1">
+      <c r="B39" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">_xll.TBXLL_SheetName(Sheet2!A1:D7)</f>
         <v>[tests.xlsx]Sheet2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="str">
+      <c r="A40" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_IsEmptyCell(C40)</v>
       </c>
-      <c r="B40" t="b" cm="1">
+      <c r="B40" s="5" t="b" cm="1">
         <f t="array" ref="B40">_xll.TBXLL_IsEmptyCell(C40)</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="str">
+      <c r="A41" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_TestMissing(3.6)</v>
       </c>
-      <c r="B41" cm="1">
+      <c r="B41" s="5" cm="1">
         <f t="array" ref="B41">_xll.TBXLL_TestMissing(3.6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="str">
+      <c r="A42" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D42:D44,E42:E44)}</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <f t="array" ref="B42:B44">_xll.TBXLL_MultiplyArrays(D42:D44,E42:E44)</f>
         <v>2</v>
       </c>
@@ -985,11 +1005,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="str">
+      <c r="A43" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D42:D44,E42:E44)}</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>20</v>
       </c>
       <c r="D43">
@@ -1000,11 +1020,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="str">
+      <c r="A44" s="5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D42:D44,E42:E44)}</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>4</v>
       </c>
       <c r="D44">
@@ -1015,75 +1035,72 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="5"/>
+      <c r="A45" s="5" t="str">
+        <f t="shared" ref="A45:A50" ca="1" si="3">_xlfn.FORMULATEXT(B45)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B45" s="7">
+        <f t="array" ref="B45:E45">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.46296296296296297</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="str">
-        <f t="shared" ref="A46:A51" ca="1" si="3">_xlfn.FORMULATEXT(B46)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B46" s="4">
-        <f t="array" ref="B46:E46">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0.46296296296296297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="str">
+      <c r="A46" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcSafe(100)</v>
       </c>
-      <c r="B47" cm="1">
-        <f t="array" ref="B47">_xll.TBXLL_SlowCalcSafe(100)</f>
+      <c r="B46" s="5" cm="1">
+        <f t="array" ref="B46">_xll.TBXLL_SlowCalcSafe(100)</f>
         <v>66666716645.884483</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="str">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcUnsafe(100)</v>
       </c>
-      <c r="B48" cm="1">
-        <f t="array" ref="B48">_xll.TBXLL_SlowCalcUnsafe(100)</f>
+      <c r="B47" s="5" cm="1">
+        <f t="array" ref="B47">_xll.TBXLL_SlowCalcUnsafe(100)</f>
         <v>66666716645.884483</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="str">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_NumberName(9)</v>
       </c>
-      <c r="B49" t="str" cm="1">
-        <f t="array" ref="B49">_xll.TBXLL_NumberName(9)</f>
+      <c r="B48" s="5" t="str" cm="1">
+        <f t="array" ref="B48">_xll.TBXLL_NumberName(9)</f>
         <v>Nine</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="str">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_RomanNumeral(9)</v>
       </c>
-      <c r="B50" t="str" cm="1">
-        <f t="array" ref="B50">_xll.TBXLL_RomanNumeral(9)</f>
+      <c r="B49" s="5" t="str" cm="1">
+        <f t="array" ref="B49">_xll.TBXLL_RomanNumeral(9)</f>
         <v>IX</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="str">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellLocation(C51)</v>
-      </c>
-      <c r="B51" t="str" cm="1">
-        <f t="array" ref="B51">_xll.TBXLL_CellLocation(C51)</f>
-        <v>row:50col:2</v>
+        <v>=TBXLL_CellAddress(C50)</v>
+      </c>
+      <c r="B50" s="5" t="str" cm="1">
+        <f t="array" ref="B50">_xll.TBXLL_CellAddress(C50)</f>
+        <v>$B$49</v>
       </c>
     </row>
   </sheetData>
